--- a/Math/ParameterRescaling__20181202.xlsx
+++ b/Math/ParameterRescaling__20181202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583D0BAA-215C-4A0C-845F-2ACF5F6AC411}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB30B163-EB62-4877-B156-513CD3D0A855}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="12330" xr2:uid="{1A4D03EC-A557-4E54-88C9-ACEA67472BBF}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -664,7 +664,7 @@
         <v>1E-3</v>
       </c>
       <c r="L2" s="13">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M2" s="11">
         <f>+$B$2</f>
@@ -680,19 +680,19 @@
       </c>
       <c r="P2" s="9">
         <f t="shared" ref="P2:P6" si="0">L2 * $N2^H2</f>
-        <v>1.6194331983805668E-4</v>
+        <v>1.6194331983805668E-5</v>
       </c>
       <c r="Q2" s="17">
         <f>SQRT(O2*P2)</f>
-        <v>1.6194331983805668E-4</v>
+        <v>5.1210974253738935E-5</v>
       </c>
       <c r="R2" s="15">
         <f>O2/$Q$2</f>
-        <v>1</v>
+        <v>3.1622776601683795</v>
       </c>
       <c r="S2" s="15">
         <f t="shared" ref="S2:S6" si="1">P2/$Q$2</f>
-        <v>1</v>
+        <v>0.31622776601683794</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
@@ -727,7 +727,7 @@
       </c>
       <c r="L3" s="14">
         <f>L2*$J3</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M3" s="11">
         <f t="shared" ref="M3:M6" si="2">+$B$2</f>
@@ -743,16 +743,16 @@
       </c>
       <c r="P3" s="9">
         <f t="shared" si="0"/>
-        <v>0.26225638840171123</v>
+        <v>2.6225638840171123E-2</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="15">
         <f t="shared" ref="R3:R6" si="5">O3/$Q$2</f>
-        <v>1619.4331983805669</v>
+        <v>5121.0974253738941</v>
       </c>
       <c r="S3" s="15">
         <f t="shared" si="1"/>
-        <v>1619.4331983805669</v>
+        <v>512.10974253738937</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
@@ -783,7 +783,7 @@
         <v>1E-3</v>
       </c>
       <c r="L4" s="13">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" si="2"/>
@@ -799,16 +799,16 @@
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>1.6194331983805668E-4</v>
+        <v>1.6194331983805668E-5</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="15">
         <f t="shared" si="5"/>
-        <v>0.16194331983805668</v>
+        <v>0.51210974253738939</v>
       </c>
       <c r="S4" s="15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.31622776601683794</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -843,7 +843,7 @@
       </c>
       <c r="L5" s="14">
         <f>L4*$J5</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="2"/>
@@ -859,16 +859,16 @@
       </c>
       <c r="P5" s="9">
         <f t="shared" si="0"/>
-        <v>0.26225638840171123</v>
+        <v>2.6225638840171123E-2</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="15">
         <f t="shared" si="5"/>
-        <v>262.25638840171121</v>
+        <v>829.32751827917298</v>
       </c>
       <c r="S5" s="15">
         <f t="shared" si="1"/>
-        <v>1619.4331983805669</v>
+        <v>512.10974253738937</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
@@ -892,7 +892,7 @@
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="13">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="12"/>
       <c r="M6" s="11">
@@ -905,13 +905,13 @@
       </c>
       <c r="O6" s="9">
         <f t="shared" si="4"/>
-        <v>2.6225638840171124</v>
+        <v>26.225638840171122</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="15">
         <f t="shared" si="5"/>
-        <v>16194.331983805669</v>
+        <v>512109.74253738939</v>
       </c>
       <c r="S6" s="16"/>
     </row>

--- a/Math/ParameterRescaling__20181202.xlsx
+++ b/Math/ParameterRescaling__20181202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB30B163-EB62-4877-B156-513CD3D0A855}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F742233-97D9-4B24-8D94-710E6C5F5634}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="12330" xr2:uid="{1A4D03EC-A557-4E54-88C9-ACEA67472BBF}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -780,10 +780,10 @@
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="13">
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="L4" s="13">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" si="2"/>
@@ -795,20 +795,20 @@
       </c>
       <c r="O4" s="9">
         <f t="shared" si="4"/>
-        <v>2.6225638840171122E-5</v>
+        <v>2.6225638840171123E-2</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>1.6194331983805668E-5</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="15">
         <f t="shared" si="5"/>
-        <v>0.51210974253738939</v>
+        <v>512.10974253738937</v>
       </c>
       <c r="S4" s="15">
         <f t="shared" si="1"/>
-        <v>0.31622776601683794</v>
+        <v>3162.2776601683795</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
@@ -835,15 +835,15 @@
         <v>1000</v>
       </c>
       <c r="J5" s="13">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="14">
         <f>K4*$J5</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L5" s="14">
         <f>L4*$J5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="2"/>
@@ -855,20 +855,20 @@
       </c>
       <c r="O5" s="9">
         <f t="shared" si="4"/>
-        <v>4.2470670186511933E-2</v>
+        <v>0</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="0"/>
-        <v>2.6225638840171123E-2</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="15">
         <f t="shared" si="5"/>
-        <v>829.32751827917298</v>
+        <v>0</v>
       </c>
       <c r="S5" s="15">
         <f t="shared" si="1"/>
-        <v>512.10974253738937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">

--- a/Math/ParameterRescaling__20181202.xlsx
+++ b/Math/ParameterRescaling__20181202.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F742233-97D9-4B24-8D94-710E6C5F5634}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3409B10-AE04-4C31-92B2-355CA4FCC53D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="12330" xr2:uid="{1A4D03EC-A557-4E54-88C9-ACEA67472BBF}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -238,8 +238,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -557,30 +557,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA56402-E638-4581-9E74-55D8300FE9C9}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19.265625" customWidth="1"/>
-    <col min="5" max="5" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.06640625" customWidth="1"/>
-    <col min="7" max="7" width="8.53125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" customWidth="1"/>
-    <col min="12" max="12" width="10.86328125" customWidth="1"/>
-    <col min="18" max="18" width="11.46484375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="13.41796875" customWidth="1"/>
+    <col min="2" max="2" width="10.578125" customWidth="1"/>
+    <col min="4" max="4" width="19.26171875" customWidth="1"/>
+    <col min="5" max="5" width="16.9453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.05078125" customWidth="1"/>
+    <col min="7" max="7" width="8.5234375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.83984375" customWidth="1"/>
+    <col min="12" max="12" width="10.83984375" customWidth="1"/>
+    <col min="18" max="18" width="11.47265625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.05078125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
@@ -632,7 +632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
@@ -657,14 +657,14 @@
       </c>
       <c r="I2" s="11">
         <f>+$B$1</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="13">
         <v>1E-3</v>
       </c>
       <c r="L2" s="13">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M2" s="11">
         <f>+$B$2</f>
@@ -672,30 +672,30 @@
       </c>
       <c r="N2" s="9">
         <f>I2/M2</f>
-        <v>0.16194331983805668</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="O2" s="9">
         <f>K2 * $N2^G2</f>
-        <v>1.6194331983805668E-4</v>
+        <v>1.6194331983805668E-7</v>
       </c>
       <c r="P2" s="9">
-        <f t="shared" ref="P2:P6" si="0">L2 * $N2^H2</f>
-        <v>1.6194331983805668E-5</v>
+        <f t="shared" ref="P2:P5" si="0">L2 * $N2^H2</f>
+        <v>1.6194331983805668E-7</v>
       </c>
       <c r="Q2" s="17">
         <f>SQRT(O2*P2)</f>
-        <v>5.1210974253738935E-5</v>
+        <v>1.6194331983805668E-7</v>
       </c>
       <c r="R2" s="15">
         <f>O2/$Q$2</f>
-        <v>3.1622776601683795</v>
+        <v>1</v>
       </c>
       <c r="S2" s="15">
-        <f t="shared" ref="S2:S6" si="1">P2/$Q$2</f>
-        <v>0.31622776601683794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+        <f t="shared" ref="S2:S5" si="1">P2/$Q$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -716,14 +716,14 @@
       </c>
       <c r="I3" s="11">
         <f>+$B$1</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
         <v>1000</v>
-      </c>
-      <c r="J3" s="13">
-        <v>10000</v>
       </c>
       <c r="K3" s="14">
         <f>K2*$J3</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L3" s="14">
         <f>L2*$J3</f>
@@ -735,27 +735,27 @@
       </c>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N6" si="3">I3/M3</f>
-        <v>0.16194331983805668</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="O3" s="9">
         <f t="shared" ref="O3:O6" si="4">K3 * $N3^G3</f>
-        <v>0.26225638840171123</v>
+        <v>2.6225638840171123E-8</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" si="0"/>
-        <v>2.6225638840171123E-2</v>
+        <v>2.6225638840171123E-8</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="15">
         <f t="shared" ref="R3:R6" si="5">O3/$Q$2</f>
-        <v>5121.0974253738941</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="S3" s="15">
         <f t="shared" si="1"/>
-        <v>512.10974253738937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+        <v>0.16194331983805668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -776,7 +776,7 @@
       </c>
       <c r="I4" s="11">
         <f>+$B$1</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="13">
@@ -791,27 +791,27 @@
       </c>
       <c r="N4" s="9">
         <f t="shared" si="3"/>
-        <v>0.16194331983805668</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="4"/>
-        <v>2.6225638840171123E-2</v>
+        <v>2.6225638840171123E-8</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>0.16194331983805668</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="15">
         <f t="shared" si="5"/>
-        <v>512.10974253738937</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="S4" s="15">
         <f t="shared" si="1"/>
-        <v>3162.2776601683795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="I5" s="11">
         <f>+$B$1</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J5" s="13">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="N5" s="9">
         <f t="shared" si="3"/>
-        <v>0.16194331983805668</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="4"/>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -888,7 +888,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="11">
         <f>+$B$1</f>
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="13">
@@ -901,21 +901,21 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" si="3"/>
-        <v>0.16194331983805668</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="4"/>
-        <v>26.225638840171122</v>
+        <v>2.6225638840171122E-5</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="15">
         <f t="shared" si="5"/>
-        <v>512109.74253738939</v>
+        <v>161.94331983805668</v>
       </c>
       <c r="S6" s="16"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
@@ -923,43 +923,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10">
         <v>2</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10">
         <v>3</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
         <v>4</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
         <v>5</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
         <v>6</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10">
         <v>7</v>
       </c>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10">
         <v>8</v>
       </c>
@@ -967,7 +967,7 @@
         <v>4369</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10">
         <v>9</v>
       </c>
@@ -975,7 +975,7 @@
         <v>6175</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
         <v>10</v>
       </c>

--- a/Math/ParameterRescaling__20181202.xlsx
+++ b/Math/ParameterRescaling__20181202.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3409B10-AE04-4C31-92B2-355CA4FCC53D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFBF57-AB28-4853-AD00-10094FCFFFAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="12330" xr2:uid="{1A4D03EC-A557-4E54-88C9-ACEA67472BBF}"/>
   </bookViews>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA56402-E638-4581-9E74-55D8300FE9C9}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -580,7 +580,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="5">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6" t="s">
@@ -657,7 +657,7 @@
       </c>
       <c r="I2" s="11">
         <f>+$B$1</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="13">
@@ -672,19 +672,19 @@
       </c>
       <c r="N2" s="9">
         <f>I2/M2</f>
-        <v>1.6194331983805668E-4</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="O2" s="9">
         <f>K2 * $N2^G2</f>
-        <v>1.6194331983805668E-7</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="P2" s="9">
         <f t="shared" ref="P2:P5" si="0">L2 * $N2^H2</f>
-        <v>1.6194331983805668E-7</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="Q2" s="17">
         <f>SQRT(O2*P2)</f>
-        <v>1.6194331983805668E-7</v>
+        <v>1.6194331983805668E-4</v>
       </c>
       <c r="R2" s="15">
         <f>O2/$Q$2</f>
@@ -716,7 +716,7 @@
       </c>
       <c r="I3" s="11">
         <f>+$B$1</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J3" s="13">
         <v>1000</v>
@@ -735,24 +735,24 @@
       </c>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N6" si="3">I3/M3</f>
-        <v>1.6194331983805668E-4</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="O3" s="9">
         <f t="shared" ref="O3:O6" si="4">K3 * $N3^G3</f>
-        <v>2.6225638840171123E-8</v>
+        <v>2.6225638840171123E-2</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" si="0"/>
-        <v>2.6225638840171123E-8</v>
+        <v>2.6225638840171123E-2</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="15">
         <f t="shared" ref="R3:R6" si="5">O3/$Q$2</f>
-        <v>0.16194331983805668</v>
+        <v>161.94331983805668</v>
       </c>
       <c r="S3" s="15">
         <f t="shared" si="1"/>
-        <v>0.16194331983805668</v>
+        <v>161.94331983805668</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -776,7 +776,7 @@
       </c>
       <c r="I4" s="11">
         <f>+$B$1</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="13">
@@ -791,20 +791,20 @@
       </c>
       <c r="N4" s="9">
         <f t="shared" si="3"/>
-        <v>1.6194331983805668E-4</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="4"/>
-        <v>2.6225638840171123E-8</v>
+        <v>2.6225638840171123E-2</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
-        <v>1.6194331983805668E-4</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="15">
         <f t="shared" si="5"/>
-        <v>0.16194331983805668</v>
+        <v>161.94331983805668</v>
       </c>
       <c r="S4" s="15">
         <f t="shared" si="1"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="I5" s="11">
         <f>+$B$1</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="13">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="N5" s="9">
         <f t="shared" si="3"/>
-        <v>1.6194331983805668E-4</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="4"/>
@@ -888,7 +888,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="11">
         <f>+$B$1</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="13">
@@ -901,17 +901,17 @@
       </c>
       <c r="N6" s="9">
         <f t="shared" si="3"/>
-        <v>1.6194331983805668E-4</v>
+        <v>0.16194331983805668</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="4"/>
-        <v>2.6225638840171122E-5</v>
+        <v>26.225638840171122</v>
       </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="15">
         <f t="shared" si="5"/>
-        <v>161.94331983805668</v>
+        <v>161943.31983805669</v>
       </c>
       <c r="S6" s="16"/>
     </row>
